--- a/biology/Histoire de la zoologie et de la botanique/Jean_Baer/Jean_Baer.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean_Baer/Jean_Baer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Baer, de son nom complet Jean-Georges Baer, né le 12 février 1902 à Londres et mort le 21 février 1975 à Neuchâtel, est un parasitologue et écologue suisse.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né en Angleterre, il fait ses études à Neuchâtel, Genève, et à Paris, où il travaille avec Charles Joyeux[1]. Son livre Ecology of animal parasites (1951) est considéré comme un classique dans le domaine[2]. Baer a publié plus de 250 articles[2], parmi lesquels des travaux fondamentaux sur les Temnocephalida (un groupe de vers plats parasites) et sur les ténias[3].
-Baer était membre de plusieurs sociétés scientifiques, vice-président de l'Union internationale des sociétés de biologie[3], et président de l'Union internationale pour la conservation de la nature (UICN) de 1958 à 1963[4].
-Un rongeur, l'Hylomysque de Baer (Hylomyscus baeri) est nommé en son honneur[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né en Angleterre, il fait ses études à Neuchâtel, Genève, et à Paris, où il travaille avec Charles Joyeux. Son livre Ecology of animal parasites (1951) est considéré comme un classique dans le domaine. Baer a publié plus de 250 articles, parmi lesquels des travaux fondamentaux sur les Temnocephalida (un groupe de vers plats parasites) et sur les ténias.
+Baer était membre de plusieurs sociétés scientifiques, vice-président de l'Union internationale des sociétés de biologie, et président de l'Union internationale pour la conservation de la nature (UICN) de 1958 à 1963.
+Un rongeur, l'Hylomysque de Baer (Hylomyscus baeri) est nommé en son honneur.
 </t>
         </is>
       </c>
